--- a/tables/samples.xlsx
+++ b/tables/samples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimsil/Dropbox (Linnarsson Group)/Linnarsson Group/Manuscripts/Human_adult_brain/Tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimsil/Linnarsson Group Dropbox/Linnarsson Group/Manuscripts/Human_adult_brain/Revision/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5622110E-525B-1D42-9F5F-91819FC8A795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90A4872-0561-5D4C-8F4E-1FCE923EB4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3880" yWindow="2140" windowWidth="33600" windowHeight="19220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37360" yWindow="1040" windowWidth="30160" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6281" uniqueCount="1289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6897" uniqueCount="1293">
   <si>
     <t>Donor</t>
   </si>
@@ -3887,6 +3887,18 @@
   </si>
   <si>
     <t>VPL</t>
+  </si>
+  <si>
+    <t>most anterior part of the cervical spinal cord</t>
+  </si>
+  <si>
+    <t>Available on NeMO</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -3916,7 +3928,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -3939,15 +3951,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4250,10 +4294,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M612"/>
+  <dimension ref="A1:N612"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="I92" workbookViewId="0">
+      <selection activeCell="N116" sqref="N116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4269,9 +4313,10 @@
     <col min="10" max="11" width="23" customWidth="1"/>
     <col min="12" max="12" width="29.1640625" customWidth="1"/>
     <col min="13" max="13" width="33.6640625" customWidth="1"/>
+    <col min="14" max="14" width="41.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1161</v>
       </c>
@@ -4311,9 +4356,12 @@
       <c r="M1" s="1" t="s">
         <v>1178</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="N1" s="4" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -4349,8 +4397,11 @@
       <c r="L2">
         <v>7810</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -4387,8 +4438,11 @@
       <c r="L3">
         <v>7556</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -4425,8 +4479,11 @@
       <c r="L4">
         <v>6956</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -4463,8 +4520,11 @@
       <c r="L5">
         <v>6759</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -4501,8 +4561,11 @@
       <c r="L6">
         <v>5914</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -4539,8 +4602,11 @@
       <c r="L7">
         <v>6061</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -4577,8 +4643,11 @@
       <c r="L8">
         <v>7063</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -4615,8 +4684,11 @@
       <c r="L9">
         <v>7031</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -4653,8 +4725,11 @@
       <c r="L10">
         <v>18960</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -4691,8 +4766,11 @@
       <c r="L11">
         <v>8166</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -4729,8 +4807,11 @@
       <c r="L12">
         <v>8134</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
@@ -4767,8 +4848,11 @@
       <c r="L13">
         <v>7167</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
@@ -4805,8 +4889,11 @@
       <c r="L14">
         <v>7068</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
@@ -4843,8 +4930,11 @@
       <c r="L15">
         <v>6217</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>53</v>
       </c>
@@ -4881,8 +4971,11 @@
       <c r="L16">
         <v>4813</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N16" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>55</v>
       </c>
@@ -4919,8 +5012,11 @@
       <c r="L17">
         <v>6359</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N17" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>62</v>
       </c>
@@ -4957,8 +5053,11 @@
       <c r="L18">
         <v>5951</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N18" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>64</v>
       </c>
@@ -4995,8 +5094,11 @@
       <c r="L19">
         <v>5761</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N19" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>66</v>
       </c>
@@ -5033,8 +5135,11 @@
       <c r="L20">
         <v>6356</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N20" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>68</v>
       </c>
@@ -5071,8 +5176,11 @@
       <c r="L21">
         <v>8013</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N21" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>73</v>
       </c>
@@ -5109,8 +5217,11 @@
       <c r="L22">
         <v>7813</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N22" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>71</v>
       </c>
@@ -5147,8 +5258,11 @@
       <c r="L23">
         <v>7596</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N23" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>75</v>
       </c>
@@ -5185,8 +5299,11 @@
       <c r="L24">
         <v>6311</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N24" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>78</v>
       </c>
@@ -5223,8 +5340,11 @@
       <c r="L25">
         <v>7151</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N25" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>80</v>
       </c>
@@ -5261,8 +5381,11 @@
       <c r="L26">
         <v>7377</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N26" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>82</v>
       </c>
@@ -5299,8 +5422,11 @@
       <c r="L27">
         <v>22078</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N27" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>84</v>
       </c>
@@ -5337,8 +5463,11 @@
       <c r="L28">
         <v>7711</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N28" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>87</v>
       </c>
@@ -5375,8 +5504,11 @@
       <c r="L29">
         <v>7897</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N29" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>89</v>
       </c>
@@ -5413,8 +5545,11 @@
       <c r="L30">
         <v>7829</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N30" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>91</v>
       </c>
@@ -5451,8 +5586,11 @@
       <c r="L31">
         <v>7727</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N31" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>93</v>
       </c>
@@ -5489,8 +5627,11 @@
       <c r="L32">
         <v>4757</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>97</v>
       </c>
@@ -5527,8 +5668,11 @@
       <c r="L33">
         <v>5917</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>100</v>
       </c>
@@ -5568,8 +5712,11 @@
       <c r="M34" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>104</v>
       </c>
@@ -5609,8 +5756,11 @@
       <c r="M35" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>106</v>
       </c>
@@ -5650,8 +5800,11 @@
       <c r="M36" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>110</v>
       </c>
@@ -5691,8 +5844,11 @@
       <c r="M37" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>112</v>
       </c>
@@ -5732,8 +5888,11 @@
       <c r="M38" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>116</v>
       </c>
@@ -5770,8 +5929,11 @@
       <c r="L39">
         <v>6441</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>118</v>
       </c>
@@ -5808,8 +5970,11 @@
       <c r="L40">
         <v>7274</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>122</v>
       </c>
@@ -5846,8 +6011,11 @@
       <c r="L41">
         <v>8646</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>124</v>
       </c>
@@ -5884,8 +6052,11 @@
       <c r="L42">
         <v>4335</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>128</v>
       </c>
@@ -5922,8 +6093,11 @@
       <c r="L43">
         <v>5296</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>130</v>
       </c>
@@ -5960,8 +6134,11 @@
       <c r="L44">
         <v>5193</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>134</v>
       </c>
@@ -5998,8 +6175,11 @@
       <c r="L45">
         <v>4706</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>138</v>
       </c>
@@ -6036,8 +6216,11 @@
       <c r="L46">
         <v>6442</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>140</v>
       </c>
@@ -6077,8 +6260,11 @@
       <c r="M47" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="2" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>144</v>
       </c>
@@ -6115,8 +6301,11 @@
       <c r="L48">
         <v>6324</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N48" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>146</v>
       </c>
@@ -6153,8 +6342,11 @@
       <c r="L49">
         <v>6612</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N49" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>150</v>
       </c>
@@ -6191,8 +6383,11 @@
       <c r="L50">
         <v>6460</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N50" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>152</v>
       </c>
@@ -6229,8 +6424,11 @@
       <c r="L51">
         <v>6590</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N51" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>156</v>
       </c>
@@ -6267,8 +6465,11 @@
       <c r="L52">
         <v>6939</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N52" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>158</v>
       </c>
@@ -6305,8 +6506,11 @@
       <c r="L53">
         <v>8066</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N53" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>162</v>
       </c>
@@ -6343,8 +6547,11 @@
       <c r="L54">
         <v>8645</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N54" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>164</v>
       </c>
@@ -6381,8 +6588,11 @@
       <c r="L55">
         <v>5865</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N55" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>168</v>
       </c>
@@ -6419,8 +6629,11 @@
       <c r="L56">
         <v>5804</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N56" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>170</v>
       </c>
@@ -6457,8 +6670,11 @@
       <c r="L57">
         <v>6012</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N57" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>174</v>
       </c>
@@ -6495,8 +6711,11 @@
       <c r="L58">
         <v>6307</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N58" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>176</v>
       </c>
@@ -6533,8 +6752,11 @@
       <c r="L59">
         <v>5614</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N59" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>180</v>
       </c>
@@ -6571,8 +6793,11 @@
       <c r="L60">
         <v>6170</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N60" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>182</v>
       </c>
@@ -6609,8 +6834,11 @@
       <c r="L61">
         <v>4453</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N61" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>186</v>
       </c>
@@ -6647,8 +6875,11 @@
       <c r="L62">
         <v>4729</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N62" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>188</v>
       </c>
@@ -6685,8 +6916,11 @@
       <c r="L63">
         <v>6689</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N63" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>192</v>
       </c>
@@ -6723,8 +6957,11 @@
       <c r="L64">
         <v>6442</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N64" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>193</v>
       </c>
@@ -6761,8 +6998,11 @@
       <c r="L65">
         <v>6101</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N65" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>196</v>
       </c>
@@ -6799,8 +7039,11 @@
       <c r="L66">
         <v>6533</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N66" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>197</v>
       </c>
@@ -6837,8 +7080,11 @@
       <c r="L67">
         <v>6205</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N67" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>200</v>
       </c>
@@ -6875,8 +7121,11 @@
       <c r="L68">
         <v>5327</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N68" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>201</v>
       </c>
@@ -6913,8 +7162,11 @@
       <c r="L69">
         <v>8374</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N69" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>204</v>
       </c>
@@ -6951,8 +7203,11 @@
       <c r="L70">
         <v>8818</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N70" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>205</v>
       </c>
@@ -6989,8 +7244,11 @@
       <c r="L71">
         <v>4518</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N71" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>208</v>
       </c>
@@ -7027,8 +7285,11 @@
       <c r="L72">
         <v>5120</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N72" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>209</v>
       </c>
@@ -7065,8 +7326,11 @@
       <c r="L73">
         <v>6051</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N73" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>212</v>
       </c>
@@ -7103,8 +7367,11 @@
       <c r="L74">
         <v>4957</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N74" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>214</v>
       </c>
@@ -7141,8 +7408,11 @@
       <c r="L75">
         <v>3022</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N75" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>218</v>
       </c>
@@ -7179,8 +7449,11 @@
       <c r="L76">
         <v>3224</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N76" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>220</v>
       </c>
@@ -7217,8 +7490,11 @@
       <c r="L77">
         <v>5476</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N77" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>224</v>
       </c>
@@ -7255,8 +7531,11 @@
       <c r="L78">
         <v>6429</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N78" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>226</v>
       </c>
@@ -7293,8 +7572,11 @@
       <c r="L79">
         <v>6475</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N79" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>230</v>
       </c>
@@ -7331,8 +7613,11 @@
       <c r="L80">
         <v>6002</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>232</v>
       </c>
@@ -7369,8 +7654,11 @@
       <c r="L81">
         <v>6891</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N81" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>236</v>
       </c>
@@ -7407,8 +7695,11 @@
       <c r="L82">
         <v>6831</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N82" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>238</v>
       </c>
@@ -7445,8 +7736,11 @@
       <c r="L83">
         <v>6597</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N83" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>242</v>
       </c>
@@ -7483,8 +7777,11 @@
       <c r="L84">
         <v>7486</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N84" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>244</v>
       </c>
@@ -7521,8 +7818,11 @@
       <c r="L85">
         <v>6850</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N85" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>248</v>
       </c>
@@ -7559,8 +7859,11 @@
       <c r="L86">
         <v>7397</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N86" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>250</v>
       </c>
@@ -7597,8 +7900,11 @@
       <c r="L87">
         <v>6863</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N87" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>253</v>
       </c>
@@ -7635,8 +7941,11 @@
       <c r="L88">
         <v>6737</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N88" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>254</v>
       </c>
@@ -7673,8 +7982,11 @@
       <c r="L89">
         <v>8075</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N89" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>257</v>
       </c>
@@ -7711,8 +8023,11 @@
       <c r="L90">
         <v>7448</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N90" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>258</v>
       </c>
@@ -7749,8 +8064,11 @@
       <c r="L91">
         <v>5503</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N91" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>261</v>
       </c>
@@ -7787,8 +8105,11 @@
       <c r="L92">
         <v>6050</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N92" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>262</v>
       </c>
@@ -7825,8 +8146,11 @@
       <c r="L93">
         <v>5610</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N93" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>265</v>
       </c>
@@ -7863,8 +8187,11 @@
       <c r="L94">
         <v>5797</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N94" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>266</v>
       </c>
@@ -7901,8 +8228,11 @@
       <c r="L95">
         <v>5725</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N95" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>269</v>
       </c>
@@ -7939,8 +8269,11 @@
       <c r="L96">
         <v>5762</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>270</v>
       </c>
@@ -7977,8 +8310,11 @@
       <c r="L97">
         <v>4854</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>273</v>
       </c>
@@ -8015,8 +8351,11 @@
       <c r="L98">
         <v>4552</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>274</v>
       </c>
@@ -8053,8 +8392,11 @@
       <c r="L99">
         <v>4546</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>277</v>
       </c>
@@ -8091,8 +8433,11 @@
       <c r="L100">
         <v>4946</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>278</v>
       </c>
@@ -8129,8 +8474,11 @@
       <c r="L101">
         <v>5895</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>281</v>
       </c>
@@ -8167,8 +8515,11 @@
       <c r="L102">
         <v>6281</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N102" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>282</v>
       </c>
@@ -8205,8 +8556,11 @@
       <c r="L103">
         <v>7175</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N103" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>285</v>
       </c>
@@ -8243,8 +8597,11 @@
       <c r="L104">
         <v>6916</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N104" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>287</v>
       </c>
@@ -8281,8 +8638,11 @@
       <c r="L105">
         <v>4666</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N105" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>290</v>
       </c>
@@ -8319,8 +8679,11 @@
       <c r="L106">
         <v>5040</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N106" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>291</v>
       </c>
@@ -8360,8 +8723,11 @@
       <c r="M107" t="s">
         <v>1170</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N107" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>294</v>
       </c>
@@ -8398,8 +8764,11 @@
       <c r="L108">
         <v>5861</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N108" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>295</v>
       </c>
@@ -8439,8 +8808,11 @@
       <c r="M109" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N109" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>299</v>
       </c>
@@ -8480,8 +8852,11 @@
       <c r="M110" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N110" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>300</v>
       </c>
@@ -8521,8 +8896,11 @@
       <c r="M111" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N111" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>303</v>
       </c>
@@ -8562,8 +8940,11 @@
       <c r="M112" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N112" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>304</v>
       </c>
@@ -8600,8 +8981,11 @@
       <c r="L113">
         <v>4581</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N113" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>307</v>
       </c>
@@ -8638,8 +9022,11 @@
       <c r="L114">
         <v>4582</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N114" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>308</v>
       </c>
@@ -8679,8 +9066,11 @@
       <c r="M115" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N115" s="2" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>311</v>
       </c>
@@ -8717,8 +9107,11 @@
       <c r="L116">
         <v>6458</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N116" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>312</v>
       </c>
@@ -8755,8 +9148,11 @@
       <c r="L117">
         <v>8056</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N117" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>314</v>
       </c>
@@ -8793,8 +9189,11 @@
       <c r="L118">
         <v>7941</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N118" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>315</v>
       </c>
@@ -8831,8 +9230,11 @@
       <c r="L119">
         <v>8285</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N119" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>317</v>
       </c>
@@ -8869,8 +9271,11 @@
       <c r="L120">
         <v>8827</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N120" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>318</v>
       </c>
@@ -8907,8 +9312,11 @@
       <c r="L121">
         <v>6291</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N121" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>321</v>
       </c>
@@ -8945,8 +9353,11 @@
       <c r="L122">
         <v>8847</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N122" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>322</v>
       </c>
@@ -8983,8 +9394,11 @@
       <c r="L123">
         <v>4885</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N123" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>325</v>
       </c>
@@ -9021,8 +9435,11 @@
       <c r="L124">
         <v>5184</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N124" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>327</v>
       </c>
@@ -9059,8 +9476,11 @@
       <c r="L125">
         <v>5804</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N125" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>331</v>
       </c>
@@ -9097,8 +9517,11 @@
       <c r="L126">
         <v>5681</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N126" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>333</v>
       </c>
@@ -9135,8 +9558,11 @@
       <c r="L127">
         <v>8366</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N127" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>337</v>
       </c>
@@ -9173,8 +9599,11 @@
       <c r="L128">
         <v>8203</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N128" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>339</v>
       </c>
@@ -9211,8 +9640,11 @@
       <c r="L129">
         <v>5409</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N129" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>343</v>
       </c>
@@ -9249,8 +9681,11 @@
       <c r="L130">
         <v>5515</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N130" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>345</v>
       </c>
@@ -9287,8 +9722,11 @@
       <c r="L131">
         <v>6615</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N131" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>349</v>
       </c>
@@ -9325,8 +9763,11 @@
       <c r="L132">
         <v>7124</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N132" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>351</v>
       </c>
@@ -9363,8 +9804,11 @@
       <c r="L133">
         <v>13113</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N133" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>355</v>
       </c>
@@ -9401,8 +9845,11 @@
       <c r="L134">
         <v>13035</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N134" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>357</v>
       </c>
@@ -9439,8 +9886,11 @@
       <c r="L135">
         <v>7871</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N135" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>361</v>
       </c>
@@ -9477,8 +9927,11 @@
       <c r="L136">
         <v>7683</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N136" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>363</v>
       </c>
@@ -9515,8 +9968,11 @@
       <c r="L137">
         <v>15124</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N137" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>367</v>
       </c>
@@ -9553,8 +10009,11 @@
       <c r="L138">
         <v>7469</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N138" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>369</v>
       </c>
@@ -9591,8 +10050,11 @@
       <c r="L139">
         <v>7568</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N139" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>372</v>
       </c>
@@ -9629,8 +10091,11 @@
       <c r="L140">
         <v>8654</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N140" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>373</v>
       </c>
@@ -9667,8 +10132,11 @@
       <c r="L141">
         <v>7305</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N141" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>376</v>
       </c>
@@ -9705,8 +10173,11 @@
       <c r="L142">
         <v>7495</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N142" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>377</v>
       </c>
@@ -9743,8 +10214,11 @@
       <c r="L143">
         <v>7495</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N143" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>380</v>
       </c>
@@ -9781,8 +10255,11 @@
       <c r="L144">
         <v>8472</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N144" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>381</v>
       </c>
@@ -9819,8 +10296,11 @@
       <c r="L145">
         <v>9424</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N145" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>384</v>
       </c>
@@ -9857,8 +10337,11 @@
       <c r="L146">
         <v>9226</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N146" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>385</v>
       </c>
@@ -9895,8 +10378,11 @@
       <c r="L147">
         <v>8822</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N147" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>388</v>
       </c>
@@ -9933,8 +10419,11 @@
       <c r="L148">
         <v>9318</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N148" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>389</v>
       </c>
@@ -9971,8 +10460,11 @@
       <c r="L149">
         <v>8365</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N149" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>392</v>
       </c>
@@ -10009,8 +10501,11 @@
       <c r="L150">
         <v>8440</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N150" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>393</v>
       </c>
@@ -10047,8 +10542,11 @@
       <c r="L151">
         <v>9472</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N151" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>396</v>
       </c>
@@ -10085,8 +10583,11 @@
       <c r="L152">
         <v>9619</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N152" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>397</v>
       </c>
@@ -10123,8 +10624,11 @@
       <c r="L153">
         <v>5617</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N153" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>400</v>
       </c>
@@ -10161,8 +10665,11 @@
       <c r="L154">
         <v>5838</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N154" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>401</v>
       </c>
@@ -10199,8 +10706,11 @@
       <c r="L155">
         <v>5622</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N155" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>404</v>
       </c>
@@ -10237,8 +10747,11 @@
       <c r="L156">
         <v>6016</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N156" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>406</v>
       </c>
@@ -10275,8 +10788,11 @@
       <c r="L157">
         <v>5822</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N157" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>408</v>
       </c>
@@ -10313,8 +10829,11 @@
       <c r="L158">
         <v>6322</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N158" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>409</v>
       </c>
@@ -10351,8 +10870,11 @@
       <c r="L159">
         <v>7784</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N159" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>412</v>
       </c>
@@ -10389,8 +10911,11 @@
       <c r="L160">
         <v>7746</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N160" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>413</v>
       </c>
@@ -10427,8 +10952,11 @@
       <c r="L161">
         <v>5082</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N161" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>417</v>
       </c>
@@ -10465,8 +10993,11 @@
       <c r="L162">
         <v>5157</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N162" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>419</v>
       </c>
@@ -10503,8 +11034,11 @@
       <c r="L163">
         <v>6447</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N163" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>423</v>
       </c>
@@ -10541,8 +11075,11 @@
       <c r="L164">
         <v>6417</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N164" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>425</v>
       </c>
@@ -10579,8 +11116,11 @@
       <c r="L165">
         <v>6264</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N165" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>428</v>
       </c>
@@ -10617,8 +11157,11 @@
       <c r="L166">
         <v>6636</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N166" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>429</v>
       </c>
@@ -10655,8 +11198,11 @@
       <c r="L167">
         <v>7158</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N167" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>432</v>
       </c>
@@ -10693,8 +11239,11 @@
       <c r="L168">
         <v>6912</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N168" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>433</v>
       </c>
@@ -10731,8 +11280,11 @@
       <c r="L169">
         <v>3571</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N169" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>436</v>
       </c>
@@ -10769,8 +11321,11 @@
       <c r="L170">
         <v>3851</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N170" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>437</v>
       </c>
@@ -10807,8 +11362,11 @@
       <c r="L171">
         <v>6173</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N171" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>440</v>
       </c>
@@ -10845,8 +11403,11 @@
       <c r="L172">
         <v>6906</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N172" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>441</v>
       </c>
@@ -10883,8 +11444,11 @@
       <c r="L173">
         <v>6980</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N173" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>444</v>
       </c>
@@ -10921,8 +11485,11 @@
       <c r="L174">
         <v>7499</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N174" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>445</v>
       </c>
@@ -10959,8 +11526,11 @@
       <c r="L175">
         <v>8168</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N175" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>448</v>
       </c>
@@ -10997,8 +11567,11 @@
       <c r="L176">
         <v>9628</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N176" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>449</v>
       </c>
@@ -11035,8 +11608,14 @@
       <c r="L177">
         <v>4293</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M177" t="s">
+        <v>1289</v>
+      </c>
+      <c r="N177" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>452</v>
       </c>
@@ -11073,8 +11652,14 @@
       <c r="L178">
         <v>5058</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M178" t="s">
+        <v>1289</v>
+      </c>
+      <c r="N178" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>453</v>
       </c>
@@ -11114,8 +11699,11 @@
       <c r="M179" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N179" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>457</v>
       </c>
@@ -11152,8 +11740,11 @@
       <c r="L180">
         <v>3141</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N180" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>459</v>
       </c>
@@ -11190,8 +11781,11 @@
       <c r="L181">
         <v>5648</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N181" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>460</v>
       </c>
@@ -11228,8 +11822,11 @@
       <c r="L182">
         <v>6079</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N182" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>462</v>
       </c>
@@ -11266,8 +11863,11 @@
       <c r="L183">
         <v>5904</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N183" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>463</v>
       </c>
@@ -11304,8 +11904,11 @@
       <c r="L184">
         <v>5998</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N184" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>465</v>
       </c>
@@ -11342,8 +11945,11 @@
       <c r="L185">
         <v>6245</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N185" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>466</v>
       </c>
@@ -11380,8 +11986,11 @@
       <c r="L186">
         <v>6710</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N186" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>468</v>
       </c>
@@ -11418,8 +12027,11 @@
       <c r="L187">
         <v>7060</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N187" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>469</v>
       </c>
@@ -11456,8 +12068,11 @@
       <c r="L188">
         <v>4017</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N188" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>471</v>
       </c>
@@ -11494,8 +12109,11 @@
       <c r="L189">
         <v>5641</v>
       </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N189" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>472</v>
       </c>
@@ -11532,8 +12150,11 @@
       <c r="L190">
         <v>5641</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N190" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>474</v>
       </c>
@@ -11570,8 +12191,11 @@
       <c r="L191">
         <v>5984</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N191" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>475</v>
       </c>
@@ -11608,8 +12232,11 @@
       <c r="L192">
         <v>5449</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N192" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>477</v>
       </c>
@@ -11646,8 +12273,11 @@
       <c r="L193">
         <v>5793</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N193" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>478</v>
       </c>
@@ -11684,8 +12314,11 @@
       <c r="L194">
         <v>6376</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N194" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>480</v>
       </c>
@@ -11722,8 +12355,11 @@
       <c r="L195">
         <v>6083</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N195" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>481</v>
       </c>
@@ -11760,8 +12396,11 @@
       <c r="L196">
         <v>11244</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N196" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>484</v>
       </c>
@@ -11798,8 +12437,11 @@
       <c r="L197">
         <v>12334</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N197" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>485</v>
       </c>
@@ -11836,8 +12478,11 @@
       <c r="L198">
         <v>6303</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N198" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>487</v>
       </c>
@@ -11874,8 +12519,11 @@
       <c r="L199">
         <v>6211</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N199" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>488</v>
       </c>
@@ -11912,8 +12560,14 @@
       <c r="L200">
         <v>9241</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M200" t="s">
+        <v>1289</v>
+      </c>
+      <c r="N200" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>490</v>
       </c>
@@ -11950,8 +12604,14 @@
       <c r="L201">
         <v>9659</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M201" t="s">
+        <v>1289</v>
+      </c>
+      <c r="N201" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>491</v>
       </c>
@@ -11988,8 +12648,11 @@
       <c r="L202">
         <v>8939</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N202" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>493</v>
       </c>
@@ -12026,8 +12689,11 @@
       <c r="L203">
         <v>9571</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N203" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>494</v>
       </c>
@@ -12064,8 +12730,11 @@
       <c r="L204">
         <v>13837</v>
       </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N204" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>496</v>
       </c>
@@ -12102,8 +12771,11 @@
       <c r="L205">
         <v>14943</v>
       </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N205" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>497</v>
       </c>
@@ -12140,8 +12812,11 @@
       <c r="L206">
         <v>7014</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N206" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>499</v>
       </c>
@@ -12178,8 +12853,11 @@
       <c r="L207">
         <v>7401</v>
       </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N207" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>500</v>
       </c>
@@ -12216,8 +12894,11 @@
       <c r="L208">
         <v>6609</v>
       </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N208" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>503</v>
       </c>
@@ -12254,8 +12935,11 @@
       <c r="L209">
         <v>3198</v>
       </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N209" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>504</v>
       </c>
@@ -12292,8 +12976,11 @@
       <c r="L210">
         <v>7256</v>
       </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N210" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>507</v>
       </c>
@@ -12330,8 +13017,11 @@
       <c r="L211">
         <v>8443</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N211" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>508</v>
       </c>
@@ -12368,8 +13058,11 @@
       <c r="L212">
         <v>8823</v>
       </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N212" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>511</v>
       </c>
@@ -12406,8 +13099,11 @@
       <c r="L213">
         <v>9575</v>
       </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N213" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>512</v>
       </c>
@@ -12444,8 +13140,11 @@
       <c r="L214">
         <v>7412</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N214" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>515</v>
       </c>
@@ -12482,8 +13181,11 @@
       <c r="L215">
         <v>7427</v>
       </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N215" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>516</v>
       </c>
@@ -12520,8 +13222,11 @@
       <c r="L216">
         <v>9590</v>
       </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N216" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>519</v>
       </c>
@@ -12558,8 +13263,11 @@
       <c r="L217">
         <v>10034</v>
       </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N217" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>520</v>
       </c>
@@ -12596,8 +13304,11 @@
       <c r="L218">
         <v>11419</v>
       </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N218" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>523</v>
       </c>
@@ -12634,8 +13345,11 @@
       <c r="L219">
         <v>12564</v>
       </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N219" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>524</v>
       </c>
@@ -12672,8 +13386,11 @@
       <c r="L220">
         <v>6239</v>
       </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N220" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>528</v>
       </c>
@@ -12710,8 +13427,11 @@
       <c r="L221">
         <v>6245</v>
       </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N221" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>529</v>
       </c>
@@ -12748,8 +13468,11 @@
       <c r="L222">
         <v>6764</v>
       </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N222" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>532</v>
       </c>
@@ -12786,8 +13509,11 @@
       <c r="L223">
         <v>8122</v>
       </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N223" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>533</v>
       </c>
@@ -12824,8 +13550,11 @@
       <c r="L224">
         <v>6039</v>
       </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N224" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>536</v>
       </c>
@@ -12862,8 +13591,11 @@
       <c r="L225">
         <v>6720</v>
       </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N225" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>537</v>
       </c>
@@ -12900,8 +13632,11 @@
       <c r="L226">
         <v>6860</v>
       </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N226" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>540</v>
       </c>
@@ -12938,8 +13673,11 @@
       <c r="L227">
         <v>6601</v>
       </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N227" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>541</v>
       </c>
@@ -12976,8 +13714,11 @@
       <c r="L228">
         <v>7058</v>
       </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N228" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>543</v>
       </c>
@@ -13014,8 +13755,11 @@
       <c r="L229">
         <v>7285</v>
       </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N229" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>544</v>
       </c>
@@ -13052,8 +13796,11 @@
       <c r="L230">
         <v>4381</v>
       </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N230" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>546</v>
       </c>
@@ -13090,8 +13837,11 @@
       <c r="L231">
         <v>4547</v>
       </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N231" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>547</v>
       </c>
@@ -13128,8 +13878,11 @@
       <c r="L232">
         <v>5292</v>
       </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N232" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>549</v>
       </c>
@@ -13166,8 +13919,11 @@
       <c r="L233">
         <v>5579</v>
       </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N233" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>550</v>
       </c>
@@ -13204,8 +13960,11 @@
       <c r="L234">
         <v>5896</v>
       </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N234" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>552</v>
       </c>
@@ -13242,8 +14001,11 @@
       <c r="L235">
         <v>5864</v>
       </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N235" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>553</v>
       </c>
@@ -13283,8 +14045,11 @@
       <c r="M236" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N236" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>559</v>
       </c>
@@ -13324,8 +14089,11 @@
       <c r="M237" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N237" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>561</v>
       </c>
@@ -13365,8 +14133,11 @@
       <c r="M238" t="s">
         <v>1177</v>
       </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N238" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>563</v>
       </c>
@@ -13406,8 +14177,11 @@
       <c r="M239" t="s">
         <v>1177</v>
       </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N239" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>565</v>
       </c>
@@ -13447,8 +14221,11 @@
       <c r="M240" t="s">
         <v>1177</v>
       </c>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N240" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>567</v>
       </c>
@@ -13485,8 +14262,11 @@
       <c r="L241">
         <v>4960</v>
       </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N241" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>569</v>
       </c>
@@ -13523,8 +14303,11 @@
       <c r="L242">
         <v>5106</v>
       </c>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N242" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>570</v>
       </c>
@@ -13561,8 +14344,11 @@
       <c r="L243">
         <v>5089</v>
       </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N243" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>571</v>
       </c>
@@ -13599,8 +14385,11 @@
       <c r="L244">
         <v>5786</v>
       </c>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N244" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>572</v>
       </c>
@@ -13637,8 +14426,11 @@
       <c r="L245">
         <v>5668</v>
       </c>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N245" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>573</v>
       </c>
@@ -13675,8 +14467,11 @@
       <c r="L246">
         <v>5211</v>
       </c>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N246" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>575</v>
       </c>
@@ -13713,8 +14508,11 @@
       <c r="L247">
         <v>5342</v>
       </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N247" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>576</v>
       </c>
@@ -13751,8 +14549,11 @@
       <c r="L248">
         <v>5528</v>
       </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N248" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>577</v>
       </c>
@@ -13789,8 +14590,11 @@
       <c r="L249">
         <v>6074</v>
       </c>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N249" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>578</v>
       </c>
@@ -13827,8 +14631,11 @@
       <c r="L250">
         <v>6135</v>
       </c>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N250" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>579</v>
       </c>
@@ -13865,8 +14672,11 @@
       <c r="L251">
         <v>6116</v>
       </c>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N251" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>581</v>
       </c>
@@ -13903,8 +14713,11 @@
       <c r="L252">
         <v>6252</v>
       </c>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N252" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>582</v>
       </c>
@@ -13941,8 +14754,11 @@
       <c r="L253">
         <v>6446</v>
       </c>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N253" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>583</v>
       </c>
@@ -13979,8 +14795,11 @@
       <c r="L254">
         <v>5292</v>
       </c>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N254" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>585</v>
       </c>
@@ -14017,8 +14836,11 @@
       <c r="L255">
         <v>5931</v>
       </c>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N255" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>586</v>
       </c>
@@ -14055,8 +14877,11 @@
       <c r="L256">
         <v>5559</v>
       </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N256" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>587</v>
       </c>
@@ -14093,8 +14918,11 @@
       <c r="L257">
         <v>7459</v>
       </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N257" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>589</v>
       </c>
@@ -14131,8 +14959,11 @@
       <c r="L258">
         <v>6770</v>
       </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N258" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>590</v>
       </c>
@@ -14169,8 +15000,11 @@
       <c r="L259">
         <v>5900</v>
       </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N259" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>591</v>
       </c>
@@ -14207,8 +15041,11 @@
       <c r="L260">
         <v>6614</v>
       </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N260" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>592</v>
       </c>
@@ -14245,8 +15082,11 @@
       <c r="L261">
         <v>7308</v>
       </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N261" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>594</v>
       </c>
@@ -14283,8 +15123,11 @@
       <c r="L262">
         <v>7758</v>
       </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N262" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>595</v>
       </c>
@@ -14321,8 +15164,11 @@
       <c r="L263">
         <v>8045</v>
       </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N263" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>596</v>
       </c>
@@ -14359,8 +15205,11 @@
       <c r="L264">
         <v>7390</v>
       </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N264" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>597</v>
       </c>
@@ -14400,8 +15249,11 @@
       <c r="M265" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N265" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>600</v>
       </c>
@@ -14441,8 +15293,11 @@
       <c r="M266" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N266" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>601</v>
       </c>
@@ -14482,8 +15337,11 @@
       <c r="M267" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N267" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>603</v>
       </c>
@@ -14523,8 +15381,11 @@
       <c r="M268" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N268" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>604</v>
       </c>
@@ -14564,8 +15425,11 @@
       <c r="M269" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N269" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>606</v>
       </c>
@@ -14602,8 +15466,11 @@
       <c r="L270">
         <v>4898</v>
       </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N270" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>607</v>
       </c>
@@ -14640,8 +15507,11 @@
       <c r="L271">
         <v>1572</v>
       </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N271" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>609</v>
       </c>
@@ -14681,8 +15551,11 @@
       <c r="M272" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N272" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>610</v>
       </c>
@@ -14722,8 +15595,11 @@
       <c r="M273" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N273" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>612</v>
       </c>
@@ -14763,8 +15639,11 @@
       <c r="M274" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N274" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>613</v>
       </c>
@@ -14804,8 +15683,11 @@
       <c r="M275" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N275" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>615</v>
       </c>
@@ -14845,8 +15727,11 @@
       <c r="M276" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N276" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>616</v>
       </c>
@@ -14886,8 +15771,11 @@
       <c r="M277" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N277" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>618</v>
       </c>
@@ -14927,8 +15815,11 @@
       <c r="M278" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N278" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>619</v>
       </c>
@@ -14968,8 +15859,11 @@
       <c r="M279" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N279" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>621</v>
       </c>
@@ -15009,8 +15903,11 @@
       <c r="M280" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N280" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>622</v>
       </c>
@@ -15047,8 +15944,11 @@
       <c r="L281">
         <v>6926</v>
       </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N281" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>625</v>
       </c>
@@ -15085,8 +15985,11 @@
       <c r="L282">
         <v>7721</v>
       </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N282" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>626</v>
       </c>
@@ -15123,8 +16026,11 @@
       <c r="L283">
         <v>5299</v>
       </c>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N283" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>628</v>
       </c>
@@ -15161,8 +16067,11 @@
       <c r="L284">
         <v>5845</v>
       </c>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N284" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>629</v>
       </c>
@@ -15199,8 +16108,11 @@
       <c r="L285">
         <v>6343</v>
       </c>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N285" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>631</v>
       </c>
@@ -15237,8 +16149,11 @@
       <c r="L286">
         <v>6391</v>
       </c>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N286" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>632</v>
       </c>
@@ -15275,8 +16190,11 @@
       <c r="L287">
         <v>6375</v>
       </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N287" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>634</v>
       </c>
@@ -15313,8 +16231,11 @@
       <c r="L288">
         <v>6232</v>
       </c>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N288" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>635</v>
       </c>
@@ -15351,8 +16272,11 @@
       <c r="L289">
         <v>4808</v>
       </c>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N289" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>637</v>
       </c>
@@ -15389,8 +16313,11 @@
       <c r="L290">
         <v>5802</v>
       </c>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N290" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>638</v>
       </c>
@@ -15427,8 +16354,11 @@
       <c r="L291">
         <v>4089</v>
       </c>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N291" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>640</v>
       </c>
@@ -15465,8 +16395,11 @@
       <c r="L292">
         <v>6273</v>
       </c>
-    </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N292" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>641</v>
       </c>
@@ -15503,8 +16436,11 @@
       <c r="L293">
         <v>8115</v>
       </c>
-    </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N293" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>643</v>
       </c>
@@ -15541,8 +16477,11 @@
       <c r="L294">
         <v>7289</v>
       </c>
-    </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N294" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>644</v>
       </c>
@@ -15579,8 +16518,11 @@
       <c r="L295">
         <v>13002</v>
       </c>
-    </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N295" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>646</v>
       </c>
@@ -15617,8 +16559,11 @@
       <c r="L296">
         <v>12043</v>
       </c>
-    </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N296" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>647</v>
       </c>
@@ -15655,8 +16600,11 @@
       <c r="L297">
         <v>6826</v>
       </c>
-    </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N297" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>649</v>
       </c>
@@ -15693,8 +16641,11 @@
       <c r="L298">
         <v>7230</v>
       </c>
-    </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N298" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>650</v>
       </c>
@@ -15731,8 +16682,11 @@
       <c r="L299">
         <v>4790</v>
       </c>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N299" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>652</v>
       </c>
@@ -15769,8 +16723,11 @@
       <c r="L300">
         <v>6420</v>
       </c>
-    </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N300" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>653</v>
       </c>
@@ -15807,8 +16764,11 @@
       <c r="L301">
         <v>5885</v>
       </c>
-    </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N301" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>655</v>
       </c>
@@ -15845,8 +16805,11 @@
       <c r="L302">
         <v>6190</v>
       </c>
-    </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N302" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>656</v>
       </c>
@@ -15883,8 +16846,11 @@
       <c r="L303">
         <v>6031</v>
       </c>
-    </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N303" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>658</v>
       </c>
@@ -15921,8 +16887,11 @@
       <c r="L304">
         <v>6138</v>
       </c>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N304" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>659</v>
       </c>
@@ -15959,8 +16928,11 @@
       <c r="L305">
         <v>6069</v>
       </c>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N305" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>661</v>
       </c>
@@ -15997,8 +16969,11 @@
       <c r="L306">
         <v>6205</v>
       </c>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N306" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>662</v>
       </c>
@@ -16035,8 +17010,11 @@
       <c r="L307">
         <v>6517</v>
       </c>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N307" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>664</v>
       </c>
@@ -16073,8 +17051,11 @@
       <c r="L308">
         <v>7408</v>
       </c>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N308" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>665</v>
       </c>
@@ -16111,8 +17092,11 @@
       <c r="L309">
         <v>6094</v>
       </c>
-    </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N309" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>667</v>
       </c>
@@ -16149,8 +17133,11 @@
       <c r="L310">
         <v>7654</v>
       </c>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N310" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>668</v>
       </c>
@@ -16187,8 +17174,11 @@
       <c r="L311">
         <v>6508</v>
       </c>
-    </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N311" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>670</v>
       </c>
@@ -16225,8 +17215,11 @@
       <c r="L312">
         <v>6790</v>
       </c>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N312" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>671</v>
       </c>
@@ -16263,8 +17256,11 @@
       <c r="L313">
         <v>6015</v>
       </c>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N313" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>673</v>
       </c>
@@ -16301,8 +17297,11 @@
       <c r="L314">
         <v>6413</v>
       </c>
-    </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N314" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>674</v>
       </c>
@@ -16339,8 +17338,11 @@
       <c r="L315">
         <v>3899</v>
       </c>
-    </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N315" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>676</v>
       </c>
@@ -16377,8 +17379,11 @@
       <c r="L316">
         <v>4671</v>
       </c>
-    </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N316" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>677</v>
       </c>
@@ -16415,8 +17420,11 @@
       <c r="L317">
         <v>5399</v>
       </c>
-    </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N317" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>679</v>
       </c>
@@ -16453,8 +17461,11 @@
       <c r="L318">
         <v>5574</v>
       </c>
-    </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N318" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>680</v>
       </c>
@@ -16491,8 +17502,11 @@
       <c r="L319">
         <v>6203</v>
       </c>
-    </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N319" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>682</v>
       </c>
@@ -16529,8 +17543,11 @@
       <c r="L320">
         <v>6184</v>
       </c>
-    </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N320" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>683</v>
       </c>
@@ -16567,8 +17584,11 @@
       <c r="L321">
         <v>6805</v>
       </c>
-    </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N321" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>685</v>
       </c>
@@ -16605,8 +17625,11 @@
       <c r="L322">
         <v>6402</v>
       </c>
-    </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N322" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>686</v>
       </c>
@@ -16643,8 +17666,11 @@
       <c r="L323">
         <v>4903</v>
       </c>
-    </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N323" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>688</v>
       </c>
@@ -16681,8 +17707,11 @@
       <c r="L324">
         <v>5319</v>
       </c>
-    </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N324" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>689</v>
       </c>
@@ -16719,8 +17748,11 @@
       <c r="L325">
         <v>6016</v>
       </c>
-    </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N325" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>691</v>
       </c>
@@ -16757,8 +17789,11 @@
       <c r="L326">
         <v>6385</v>
       </c>
-    </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N326" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>692</v>
       </c>
@@ -16795,8 +17830,11 @@
       <c r="L327">
         <v>6706</v>
       </c>
-    </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N327" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>694</v>
       </c>
@@ -16833,8 +17871,11 @@
       <c r="L328">
         <v>6415</v>
       </c>
-    </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N328" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>695</v>
       </c>
@@ -16871,8 +17912,11 @@
       <c r="L329">
         <v>4991</v>
       </c>
-    </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N329" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>697</v>
       </c>
@@ -16909,8 +17953,11 @@
       <c r="L330">
         <v>5830</v>
       </c>
-    </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N330" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>698</v>
       </c>
@@ -16947,8 +17994,11 @@
       <c r="L331">
         <v>4174</v>
       </c>
-    </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N331" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>700</v>
       </c>
@@ -16985,8 +18035,11 @@
       <c r="L332">
         <v>4845</v>
       </c>
-    </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N332" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>701</v>
       </c>
@@ -17023,8 +18076,11 @@
       <c r="L333">
         <v>5691</v>
       </c>
-    </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N333" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>703</v>
       </c>
@@ -17061,8 +18117,11 @@
       <c r="L334">
         <v>6649</v>
       </c>
-    </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N334" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>704</v>
       </c>
@@ -17099,8 +18158,11 @@
       <c r="L335">
         <v>5774</v>
       </c>
-    </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N335" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>706</v>
       </c>
@@ -17137,8 +18199,11 @@
       <c r="L336">
         <v>5750</v>
       </c>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N336" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>707</v>
       </c>
@@ -17175,8 +18240,11 @@
       <c r="L337">
         <v>5735</v>
       </c>
-    </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N337" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>709</v>
       </c>
@@ -17213,8 +18281,11 @@
       <c r="L338">
         <v>5690</v>
       </c>
-    </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N338" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>710</v>
       </c>
@@ -17251,8 +18322,11 @@
       <c r="L339">
         <v>6263</v>
       </c>
-    </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N339" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>712</v>
       </c>
@@ -17289,8 +18363,11 @@
       <c r="L340">
         <v>7508</v>
       </c>
-    </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N340" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>713</v>
       </c>
@@ -17327,8 +18404,11 @@
       <c r="L341">
         <v>7784</v>
       </c>
-    </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N341" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>715</v>
       </c>
@@ -17365,8 +18445,11 @@
       <c r="L342">
         <v>4095</v>
       </c>
-    </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N342" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>716</v>
       </c>
@@ -17403,8 +18486,11 @@
       <c r="L343">
         <v>7590</v>
       </c>
-    </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N343" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>718</v>
       </c>
@@ -17441,8 +18527,11 @@
       <c r="L344">
         <v>6818</v>
       </c>
-    </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N344" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>719</v>
       </c>
@@ -17482,8 +18571,11 @@
       <c r="M345" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N345" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>722</v>
       </c>
@@ -17523,8 +18615,11 @@
       <c r="M346" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N346" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>723</v>
       </c>
@@ -17564,8 +18659,11 @@
       <c r="M347" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N347" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>726</v>
       </c>
@@ -17605,8 +18703,11 @@
       <c r="M348" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N348" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>728</v>
       </c>
@@ -17646,8 +18747,11 @@
       <c r="M349" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N349" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>730</v>
       </c>
@@ -17687,8 +18791,11 @@
       <c r="M350" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N350" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>731</v>
       </c>
@@ -17728,8 +18835,11 @@
       <c r="M351" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N351" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>733</v>
       </c>
@@ -17769,8 +18879,11 @@
       <c r="M352" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N352" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>735</v>
       </c>
@@ -17810,8 +18923,11 @@
       <c r="M353" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N353" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>738</v>
       </c>
@@ -17851,8 +18967,11 @@
       <c r="M354" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N354" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>740</v>
       </c>
@@ -17889,8 +19008,11 @@
       <c r="L355">
         <v>5620</v>
       </c>
-    </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N355" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>742</v>
       </c>
@@ -17927,8 +19049,11 @@
       <c r="L356">
         <v>6254</v>
       </c>
-    </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N356" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>743</v>
       </c>
@@ -17965,8 +19090,11 @@
       <c r="L357">
         <v>6576</v>
       </c>
-    </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N357" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>745</v>
       </c>
@@ -18003,8 +19131,11 @@
       <c r="L358">
         <v>7241</v>
       </c>
-    </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N358" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>746</v>
       </c>
@@ -18041,8 +19172,11 @@
       <c r="L359">
         <v>6460</v>
       </c>
-    </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N359" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>749</v>
       </c>
@@ -18079,8 +19213,11 @@
       <c r="L360">
         <v>6940</v>
       </c>
-    </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N360" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>750</v>
       </c>
@@ -18120,8 +19257,11 @@
       <c r="M361" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N361" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>752</v>
       </c>
@@ -18161,8 +19301,11 @@
       <c r="M362" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N362" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>753</v>
       </c>
@@ -18202,8 +19345,11 @@
       <c r="M363" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N363" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>755</v>
       </c>
@@ -18240,8 +19386,11 @@
       <c r="L364">
         <v>5180</v>
       </c>
-    </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N364" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>756</v>
       </c>
@@ -18278,8 +19427,11 @@
       <c r="L365">
         <v>7538</v>
       </c>
-    </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N365" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>758</v>
       </c>
@@ -18319,8 +19471,11 @@
       <c r="M366" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N366" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>759</v>
       </c>
@@ -18357,8 +19512,11 @@
       <c r="L367">
         <v>5927</v>
       </c>
-    </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N367" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>761</v>
       </c>
@@ -18395,8 +19553,11 @@
       <c r="L368">
         <v>6280</v>
       </c>
-    </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N368" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>762</v>
       </c>
@@ -18433,8 +19594,11 @@
       <c r="L369">
         <v>5614</v>
       </c>
-    </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N369" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>764</v>
       </c>
@@ -18471,8 +19635,11 @@
       <c r="L370">
         <v>6030</v>
       </c>
-    </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N370" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>765</v>
       </c>
@@ -18509,8 +19676,11 @@
       <c r="L371">
         <v>7390</v>
       </c>
-    </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N371" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>767</v>
       </c>
@@ -18547,8 +19717,11 @@
       <c r="L372">
         <v>7440</v>
       </c>
-    </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N372" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>768</v>
       </c>
@@ -18585,8 +19758,11 @@
       <c r="L373">
         <v>6630</v>
       </c>
-    </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N373" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>770</v>
       </c>
@@ -18623,8 +19799,11 @@
       <c r="L374">
         <v>6955</v>
       </c>
-    </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N374" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>771</v>
       </c>
@@ -18661,8 +19840,11 @@
       <c r="L375">
         <v>5157</v>
       </c>
-    </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N375" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>773</v>
       </c>
@@ -18699,8 +19881,11 @@
       <c r="L376">
         <v>4787</v>
       </c>
-    </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N376" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>774</v>
       </c>
@@ -18737,8 +19922,11 @@
       <c r="L377">
         <v>5126</v>
       </c>
-    </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N377" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>776</v>
       </c>
@@ -18775,8 +19963,11 @@
       <c r="L378">
         <v>5266</v>
       </c>
-    </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N378" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>777</v>
       </c>
@@ -18816,8 +20007,11 @@
       <c r="M379" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N379" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>780</v>
       </c>
@@ -18857,8 +20051,11 @@
       <c r="M380" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N380" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>782</v>
       </c>
@@ -18895,8 +20092,11 @@
       <c r="L381">
         <v>5619</v>
       </c>
-    </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N381" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>784</v>
       </c>
@@ -18933,8 +20133,11 @@
       <c r="L382">
         <v>5778</v>
       </c>
-    </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N382" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>785</v>
       </c>
@@ -18971,8 +20174,11 @@
       <c r="L383">
         <v>5957</v>
       </c>
-    </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N383" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>787</v>
       </c>
@@ -19009,8 +20215,11 @@
       <c r="L384">
         <v>5553</v>
       </c>
-    </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N384" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>788</v>
       </c>
@@ -19047,8 +20256,11 @@
       <c r="L385">
         <v>5413</v>
       </c>
-    </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N385" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>790</v>
       </c>
@@ -19085,8 +20297,11 @@
       <c r="L386">
         <v>5032</v>
       </c>
-    </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N386" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>791</v>
       </c>
@@ -19123,8 +20338,11 @@
       <c r="L387">
         <v>4522</v>
       </c>
-    </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N387" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>793</v>
       </c>
@@ -19161,8 +20379,11 @@
       <c r="L388">
         <v>4303</v>
       </c>
-    </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N388" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>794</v>
       </c>
@@ -19199,8 +20420,11 @@
       <c r="L389">
         <v>5584</v>
       </c>
-    </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N389" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>796</v>
       </c>
@@ -19237,8 +20461,11 @@
       <c r="L390">
         <v>5459</v>
       </c>
-    </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N390" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="391" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>797</v>
       </c>
@@ -19278,8 +20505,11 @@
       <c r="M391" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N391" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>800</v>
       </c>
@@ -19319,8 +20549,11 @@
       <c r="M392" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N392" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="393" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
         <v>801</v>
       </c>
@@ -19360,8 +20593,11 @@
       <c r="M393" t="s">
         <v>1171</v>
       </c>
-    </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N393" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="394" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>803</v>
       </c>
@@ -19401,8 +20637,11 @@
       <c r="M394" t="s">
         <v>1171</v>
       </c>
-    </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N394" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="395" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>804</v>
       </c>
@@ -19439,8 +20678,11 @@
       <c r="L395">
         <v>4694</v>
       </c>
-    </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N395" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="396" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>806</v>
       </c>
@@ -19477,8 +20719,11 @@
       <c r="L396">
         <v>5373</v>
       </c>
-    </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N396" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="397" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>807</v>
       </c>
@@ -19515,8 +20760,11 @@
       <c r="L397">
         <v>5008</v>
       </c>
-    </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N397" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="398" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>809</v>
       </c>
@@ -19553,8 +20801,11 @@
       <c r="L398">
         <v>4884</v>
       </c>
-    </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N398" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="399" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>810</v>
       </c>
@@ -19591,8 +20842,11 @@
       <c r="L399">
         <v>6398</v>
       </c>
-    </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N399" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="400" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>812</v>
       </c>
@@ -19629,8 +20883,11 @@
       <c r="L400">
         <v>7062</v>
       </c>
-    </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N400" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="401" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
         <v>813</v>
       </c>
@@ -19667,8 +20924,11 @@
       <c r="L401">
         <v>6975</v>
       </c>
-    </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N401" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="402" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>815</v>
       </c>
@@ -19705,8 +20965,11 @@
       <c r="L402">
         <v>7801</v>
       </c>
-    </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N402" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="403" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>816</v>
       </c>
@@ -19743,8 +21006,11 @@
       <c r="L403">
         <v>6436</v>
       </c>
-    </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N403" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="404" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
         <v>818</v>
       </c>
@@ -19781,8 +21047,11 @@
       <c r="L404">
         <v>7156</v>
       </c>
-    </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N404" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="405" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
         <v>819</v>
       </c>
@@ -19819,8 +21088,11 @@
       <c r="L405">
         <v>6414</v>
       </c>
-    </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N405" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="406" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
         <v>821</v>
       </c>
@@ -19857,8 +21129,11 @@
       <c r="L406">
         <v>6523</v>
       </c>
-    </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N406" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="407" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
         <v>822</v>
       </c>
@@ -19895,8 +21170,11 @@
       <c r="L407">
         <v>7241</v>
       </c>
-    </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N407" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="408" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
         <v>824</v>
       </c>
@@ -19933,8 +21211,11 @@
       <c r="L408">
         <v>7145</v>
       </c>
-    </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N408" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="409" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
         <v>825</v>
       </c>
@@ -19971,8 +21252,11 @@
       <c r="L409">
         <v>7142</v>
       </c>
-    </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N409" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="410" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
         <v>827</v>
       </c>
@@ -20009,8 +21293,11 @@
       <c r="L410">
         <v>7093</v>
       </c>
-    </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N410" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="411" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
         <v>828</v>
       </c>
@@ -20047,8 +21334,11 @@
       <c r="L411">
         <v>8200</v>
       </c>
-    </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N411" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="412" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
         <v>830</v>
       </c>
@@ -20085,8 +21375,11 @@
       <c r="L412">
         <v>7819</v>
       </c>
-    </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N412" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="413" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
         <v>831</v>
       </c>
@@ -20126,8 +21419,11 @@
       <c r="M413" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N413" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="414" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
         <v>834</v>
       </c>
@@ -20167,8 +21463,11 @@
       <c r="M414" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N414" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="415" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
         <v>835</v>
       </c>
@@ -20208,8 +21507,11 @@
       <c r="M415" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N415" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="416" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
         <v>837</v>
       </c>
@@ -20249,8 +21551,11 @@
       <c r="M416" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N416" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="417" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
         <v>838</v>
       </c>
@@ -20290,8 +21595,11 @@
       <c r="M417" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N417" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="418" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
         <v>840</v>
       </c>
@@ -20331,8 +21639,11 @@
       <c r="M418" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N418" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="419" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
         <v>841</v>
       </c>
@@ -20372,8 +21683,11 @@
       <c r="M419" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N419" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="420" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>844</v>
       </c>
@@ -20413,8 +21727,11 @@
       <c r="M420" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N420" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="421" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
         <v>845</v>
       </c>
@@ -20454,8 +21771,11 @@
       <c r="M421" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N421" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="422" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
         <v>848</v>
       </c>
@@ -20495,8 +21815,11 @@
       <c r="M422" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N422" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="423" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
         <v>849</v>
       </c>
@@ -20536,8 +21859,11 @@
       <c r="M423" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N423" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="424" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
         <v>851</v>
       </c>
@@ -20577,8 +21903,11 @@
       <c r="M424" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N424" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="425" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
         <v>852</v>
       </c>
@@ -20615,8 +21944,11 @@
       <c r="L425">
         <v>6573</v>
       </c>
-    </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N425" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="426" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
         <v>854</v>
       </c>
@@ -20653,8 +21985,11 @@
       <c r="L426">
         <v>6862</v>
       </c>
-    </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N426" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="427" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
         <v>855</v>
       </c>
@@ -20694,8 +22029,11 @@
       <c r="M427" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N427" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="428" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>857</v>
       </c>
@@ -20735,8 +22073,11 @@
       <c r="M428" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N428" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="429" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
         <v>858</v>
       </c>
@@ -20776,8 +22117,11 @@
       <c r="M429" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N429" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="430" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>861</v>
       </c>
@@ -20817,8 +22161,11 @@
       <c r="M430" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N430" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="431" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
         <v>862</v>
       </c>
@@ -20858,8 +22205,11 @@
       <c r="M431" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N431" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="432" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
         <v>864</v>
       </c>
@@ -20899,8 +22249,11 @@
       <c r="M432" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N432" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="433" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
         <v>865</v>
       </c>
@@ -20940,8 +22293,11 @@
       <c r="M433" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N433" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="434" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
         <v>867</v>
       </c>
@@ -20981,8 +22337,11 @@
       <c r="M434" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N434" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="435" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
         <v>868</v>
       </c>
@@ -21022,8 +22381,11 @@
       <c r="M435" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N435" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="436" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
         <v>871</v>
       </c>
@@ -21063,8 +22425,11 @@
       <c r="M436" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N436" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="437" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
         <v>873</v>
       </c>
@@ -21104,8 +22469,11 @@
       <c r="M437" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N437" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="438" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>875</v>
       </c>
@@ -21145,8 +22513,11 @@
       <c r="M438" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N438" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="439" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
         <v>876</v>
       </c>
@@ -21186,8 +22557,11 @@
       <c r="M439" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N439" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="440" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
         <v>878</v>
       </c>
@@ -21227,8 +22601,11 @@
       <c r="M440" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N440" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="441" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
         <v>879</v>
       </c>
@@ -21268,8 +22645,11 @@
       <c r="M441" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N441" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="442" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
         <v>882</v>
       </c>
@@ -21309,8 +22689,11 @@
       <c r="M442" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N442" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="443" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
         <v>883</v>
       </c>
@@ -21350,8 +22733,11 @@
       <c r="M443" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N443" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="444" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>886</v>
       </c>
@@ -21391,8 +22777,11 @@
       <c r="M444" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N444" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="445" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
         <v>887</v>
       </c>
@@ -21432,8 +22821,11 @@
       <c r="M445" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N445" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="446" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>890</v>
       </c>
@@ -21473,8 +22865,11 @@
       <c r="M446" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N446" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="447" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
         <v>891</v>
       </c>
@@ -21514,8 +22909,11 @@
       <c r="M447" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N447" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="448" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>894</v>
       </c>
@@ -21555,8 +22953,11 @@
       <c r="M448" t="s">
         <v>1172</v>
       </c>
-    </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N448" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="449" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
         <v>895</v>
       </c>
@@ -21593,8 +22994,11 @@
       <c r="L449">
         <v>6139</v>
       </c>
-    </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N449" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="450" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
         <v>897</v>
       </c>
@@ -21631,8 +23035,11 @@
       <c r="L450">
         <v>6869</v>
       </c>
-    </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N450" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="451" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
         <v>898</v>
       </c>
@@ -21669,8 +23076,11 @@
       <c r="L451">
         <v>5699</v>
       </c>
-    </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N451" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="452" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>900</v>
       </c>
@@ -21707,8 +23117,11 @@
       <c r="L452">
         <v>5133</v>
       </c>
-    </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N452" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="453" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
         <v>901</v>
       </c>
@@ -21748,8 +23161,11 @@
       <c r="M453" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N453" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="454" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
         <v>904</v>
       </c>
@@ -21789,8 +23205,11 @@
       <c r="M454" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N454" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="455" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
         <v>905</v>
       </c>
@@ -21830,8 +23249,11 @@
       <c r="M455" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N455" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="456" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
         <v>907</v>
       </c>
@@ -21871,8 +23293,11 @@
       <c r="M456" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N456" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="457" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
         <v>908</v>
       </c>
@@ -21912,8 +23337,11 @@
       <c r="M457" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N457" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="458" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>910</v>
       </c>
@@ -21953,8 +23381,11 @@
       <c r="M458" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N458" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="459" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>911</v>
       </c>
@@ -21991,8 +23422,11 @@
       <c r="L459">
         <v>8365</v>
       </c>
-    </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N459" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="460" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
         <v>913</v>
       </c>
@@ -22029,8 +23463,11 @@
       <c r="L460">
         <v>7908</v>
       </c>
-    </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N460" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="461" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
         <v>914</v>
       </c>
@@ -22067,8 +23504,11 @@
       <c r="L461">
         <v>5935</v>
       </c>
-    </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N461" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="462" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
         <v>917</v>
       </c>
@@ -22105,8 +23545,11 @@
       <c r="L462">
         <v>6496</v>
       </c>
-    </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N462" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="463" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
         <v>918</v>
       </c>
@@ -22143,8 +23586,11 @@
       <c r="L463">
         <v>6302</v>
       </c>
-    </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N463" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="464" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
         <v>920</v>
       </c>
@@ -22181,8 +23627,11 @@
       <c r="L464">
         <v>6809</v>
       </c>
-    </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N464" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="465" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
         <v>921</v>
       </c>
@@ -22219,8 +23668,11 @@
       <c r="L465">
         <v>6869</v>
       </c>
-    </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N465" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="466" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>923</v>
       </c>
@@ -22257,8 +23709,11 @@
       <c r="L466">
         <v>6325</v>
       </c>
-    </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N466" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="467" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
         <v>924</v>
       </c>
@@ -22295,8 +23750,11 @@
       <c r="L467">
         <v>6027</v>
       </c>
-    </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N467" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="468" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
         <v>926</v>
       </c>
@@ -22333,8 +23791,11 @@
       <c r="L468">
         <v>6288</v>
       </c>
-    </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N468" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="469" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
         <v>927</v>
       </c>
@@ -22371,8 +23832,11 @@
       <c r="L469">
         <v>3791</v>
       </c>
-    </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N469" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="470" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
         <v>929</v>
       </c>
@@ -22409,8 +23873,11 @@
       <c r="L470">
         <v>4151</v>
       </c>
-    </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N470" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="471" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
         <v>930</v>
       </c>
@@ -22447,8 +23914,11 @@
       <c r="L471">
         <v>4540</v>
       </c>
-    </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N471" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="472" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>933</v>
       </c>
@@ -22485,8 +23955,11 @@
       <c r="L472">
         <v>4806</v>
       </c>
-    </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N472" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="473" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
         <v>934</v>
       </c>
@@ -22523,8 +23996,11 @@
       <c r="L473">
         <v>5266</v>
       </c>
-    </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N473" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="474" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
         <v>936</v>
       </c>
@@ -22561,8 +24037,11 @@
       <c r="L474">
         <v>5185</v>
       </c>
-    </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N474" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="475" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
         <v>937</v>
       </c>
@@ -22599,8 +24078,11 @@
       <c r="L475">
         <v>7378</v>
       </c>
-    </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N475" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="476" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
         <v>940</v>
       </c>
@@ -22637,8 +24119,11 @@
       <c r="L476">
         <v>6436</v>
       </c>
-    </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N476" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="477" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
         <v>941</v>
       </c>
@@ -22678,8 +24163,11 @@
       <c r="M477" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N477" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="478" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
         <v>943</v>
       </c>
@@ -22719,8 +24207,11 @@
       <c r="M478" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N478" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="479" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
         <v>944</v>
       </c>
@@ -22760,8 +24251,11 @@
       <c r="M479" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N479" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="480" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
         <v>946</v>
       </c>
@@ -22801,8 +24295,11 @@
       <c r="M480" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N480" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="481" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
         <v>947</v>
       </c>
@@ -22842,8 +24339,11 @@
       <c r="M481" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N481" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="482" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
         <v>950</v>
       </c>
@@ -22883,8 +24383,11 @@
       <c r="M482" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N482" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="483" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
         <v>951</v>
       </c>
@@ -22924,8 +24427,11 @@
       <c r="M483" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N483" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="484" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
         <v>954</v>
       </c>
@@ -22962,8 +24468,11 @@
       <c r="L484">
         <v>4616</v>
       </c>
-    </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N484" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="485" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
         <v>955</v>
       </c>
@@ -23000,8 +24509,11 @@
       <c r="L485">
         <v>6516</v>
       </c>
-    </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N485" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="486" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
         <v>957</v>
       </c>
@@ -23038,8 +24550,11 @@
       <c r="L486">
         <v>7121</v>
       </c>
-    </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N486" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="487" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
         <v>958</v>
       </c>
@@ -23079,8 +24594,11 @@
       <c r="M487" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N487" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="488" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
         <v>960</v>
       </c>
@@ -23120,8 +24638,11 @@
       <c r="M488" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N488" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="489" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
         <v>961</v>
       </c>
@@ -23158,8 +24679,11 @@
       <c r="L489">
         <v>4128</v>
       </c>
-    </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N489" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="490" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
         <v>963</v>
       </c>
@@ -23196,8 +24720,11 @@
       <c r="L490">
         <v>4796</v>
       </c>
-    </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N490" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="491" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
         <v>964</v>
       </c>
@@ -23237,8 +24764,11 @@
       <c r="M491" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N491" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="492" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
         <v>966</v>
       </c>
@@ -23275,8 +24805,11 @@
       <c r="L492">
         <v>2436</v>
       </c>
-    </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N492" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="493" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
         <v>967</v>
       </c>
@@ -23313,8 +24846,11 @@
       <c r="L493">
         <v>5953</v>
       </c>
-    </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N493" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="494" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
         <v>969</v>
       </c>
@@ -23351,8 +24887,11 @@
       <c r="L494">
         <v>7049</v>
       </c>
-    </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N494" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="495" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
         <v>970</v>
       </c>
@@ -23389,8 +24928,11 @@
       <c r="L495">
         <v>5703</v>
       </c>
-    </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N495" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="496" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
         <v>972</v>
       </c>
@@ -23427,8 +24969,11 @@
       <c r="L496">
         <v>6355</v>
       </c>
-    </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N496" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="497" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
         <v>973</v>
       </c>
@@ -23465,8 +25010,11 @@
       <c r="L497">
         <v>6081</v>
       </c>
-    </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N497" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="498" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
         <v>975</v>
       </c>
@@ -23503,8 +25051,11 @@
       <c r="L498">
         <v>6677</v>
       </c>
-    </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N498" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="499" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
         <v>976</v>
       </c>
@@ -23541,8 +25092,11 @@
       <c r="L499">
         <v>6082</v>
       </c>
-    </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N499" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="500" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
         <v>978</v>
       </c>
@@ -23579,8 +25133,11 @@
       <c r="L500">
         <v>5478</v>
       </c>
-    </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N500" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="501" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
         <v>979</v>
       </c>
@@ -23617,8 +25174,11 @@
       <c r="L501">
         <v>5588</v>
       </c>
-    </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N501" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="502" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
         <v>981</v>
       </c>
@@ -23655,8 +25215,11 @@
       <c r="L502">
         <v>6623</v>
       </c>
-    </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N502" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="503" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
         <v>982</v>
       </c>
@@ -23693,8 +25256,11 @@
       <c r="L503">
         <v>7469</v>
       </c>
-    </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N503" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="504" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
         <v>984</v>
       </c>
@@ -23731,8 +25297,11 @@
       <c r="L504">
         <v>8415</v>
       </c>
-    </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N504" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="505" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
         <v>985</v>
       </c>
@@ -23769,8 +25338,11 @@
       <c r="L505">
         <v>4402</v>
       </c>
-    </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N505" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="506" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
         <v>988</v>
       </c>
@@ -23807,8 +25379,11 @@
       <c r="L506">
         <v>4870</v>
       </c>
-    </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N506" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="507" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
         <v>989</v>
       </c>
@@ -23848,8 +25423,11 @@
       <c r="M507" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N507" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="508" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
         <v>991</v>
       </c>
@@ -23889,8 +25467,11 @@
       <c r="M508" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N508" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="509" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
         <v>992</v>
       </c>
@@ -23927,8 +25508,11 @@
       <c r="L509">
         <v>4641</v>
       </c>
-    </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N509" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="510" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
         <v>994</v>
       </c>
@@ -23965,8 +25549,11 @@
       <c r="L510">
         <v>5428</v>
       </c>
-    </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N510" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="511" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
         <v>995</v>
       </c>
@@ -24003,8 +25590,11 @@
       <c r="L511">
         <v>5454</v>
       </c>
-    </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N511" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="512" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
         <v>997</v>
       </c>
@@ -24041,8 +25631,11 @@
       <c r="L512">
         <v>6127</v>
       </c>
-    </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N512" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="513" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
         <v>998</v>
       </c>
@@ -24082,8 +25675,11 @@
       <c r="M513" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N513" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="514" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
         <v>1001</v>
       </c>
@@ -24123,8 +25719,11 @@
       <c r="M514" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N514" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="515" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
         <v>1002</v>
       </c>
@@ -24164,8 +25763,11 @@
       <c r="M515" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N515" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="516" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
         <v>1004</v>
       </c>
@@ -24202,8 +25804,11 @@
       <c r="L516">
         <v>6344</v>
       </c>
-    </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N516" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="517" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
         <v>1005</v>
       </c>
@@ -24240,8 +25845,11 @@
       <c r="L517">
         <v>5694</v>
       </c>
-    </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N517" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="518" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
         <v>1007</v>
       </c>
@@ -24278,8 +25886,11 @@
       <c r="L518">
         <v>6611</v>
       </c>
-    </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N518" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="519" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
         <v>1008</v>
       </c>
@@ -24316,8 +25927,11 @@
       <c r="L519">
         <v>6186</v>
       </c>
-    </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N519" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="520" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
         <v>1010</v>
       </c>
@@ -24354,8 +25968,11 @@
       <c r="L520">
         <v>7244</v>
       </c>
-    </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N520" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="521" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
         <v>1011</v>
       </c>
@@ -24395,8 +26012,11 @@
       <c r="M521" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N521" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="522" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
         <v>1013</v>
       </c>
@@ -24436,8 +26056,11 @@
       <c r="M522" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N522" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="523" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
         <v>1014</v>
       </c>
@@ -24477,8 +26100,11 @@
       <c r="M523" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N523" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="524" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
         <v>1017</v>
       </c>
@@ -24518,8 +26144,11 @@
       <c r="M524" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N524" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="525" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
         <v>1018</v>
       </c>
@@ -24559,8 +26188,11 @@
       <c r="M525" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N525" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="526" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
         <v>1020</v>
       </c>
@@ -24600,8 +26232,11 @@
       <c r="M526" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N526" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="527" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
         <v>1021</v>
       </c>
@@ -24641,8 +26276,11 @@
       <c r="M527" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N527" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="528" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
         <v>1023</v>
       </c>
@@ -24682,8 +26320,11 @@
       <c r="M528" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N528" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="529" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
         <v>1024</v>
       </c>
@@ -24723,8 +26364,11 @@
       <c r="M529" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N529" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="530" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
         <v>1027</v>
       </c>
@@ -24761,8 +26405,11 @@
       <c r="L530">
         <v>4849</v>
       </c>
-    </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N530" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="531" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
         <v>1028</v>
       </c>
@@ -24802,8 +26449,11 @@
       <c r="M531" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N531" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="532" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
         <v>1030</v>
       </c>
@@ -24840,8 +26490,11 @@
       <c r="L532">
         <v>6555</v>
       </c>
-    </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N532" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="533" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
         <v>1031</v>
       </c>
@@ -24878,8 +26531,11 @@
       <c r="L533">
         <v>4726</v>
       </c>
-    </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N533" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="534" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
         <v>1033</v>
       </c>
@@ -24916,8 +26572,11 @@
       <c r="L534">
         <v>5210</v>
       </c>
-    </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N534" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="535" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A535" s="1" t="s">
         <v>1034</v>
       </c>
@@ -24954,8 +26613,11 @@
       <c r="L535">
         <v>4715</v>
       </c>
-    </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N535" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="536" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
         <v>1036</v>
       </c>
@@ -24992,8 +26654,11 @@
       <c r="L536">
         <v>5354</v>
       </c>
-    </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N536" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="537" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
         <v>1037</v>
       </c>
@@ -25030,8 +26695,11 @@
       <c r="L537">
         <v>5008</v>
       </c>
-    </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N537" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="538" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
         <v>1039</v>
       </c>
@@ -25071,8 +26739,11 @@
       <c r="M538" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N538" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="539" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
         <v>1041</v>
       </c>
@@ -25112,8 +26783,11 @@
       <c r="M539" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N539" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="540" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
         <v>1042</v>
       </c>
@@ -25153,8 +26827,11 @@
       <c r="M540" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N540" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="541" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
         <v>1044</v>
       </c>
@@ -25194,8 +26871,11 @@
       <c r="M541" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N541" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="542" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
         <v>1045</v>
       </c>
@@ -25235,8 +26915,11 @@
       <c r="M542" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N542" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="543" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
         <v>1047</v>
       </c>
@@ -25276,8 +26959,11 @@
       <c r="M543" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N543" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="544" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
         <v>1048</v>
       </c>
@@ -25314,8 +27000,11 @@
       <c r="L544">
         <v>5484</v>
       </c>
-    </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N544" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="545" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
         <v>1049</v>
       </c>
@@ -25352,8 +27041,11 @@
       <c r="L545">
         <v>10742</v>
       </c>
-    </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N545" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="546" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
         <v>1051</v>
       </c>
@@ -25393,8 +27085,11 @@
       <c r="M546" t="s">
         <v>1175</v>
       </c>
-    </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N546" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="547" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
         <v>1053</v>
       </c>
@@ -25434,8 +27129,11 @@
       <c r="M547" t="s">
         <v>1174</v>
       </c>
-    </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N547" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="548" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
         <v>1054</v>
       </c>
@@ -25475,8 +27173,11 @@
       <c r="M548" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N548" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="549" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
         <v>1056</v>
       </c>
@@ -25516,8 +27217,11 @@
       <c r="M549" t="s">
         <v>1174</v>
       </c>
-    </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N549" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="550" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
         <v>1057</v>
       </c>
@@ -25557,8 +27261,11 @@
       <c r="M550" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N550" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="551" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
         <v>1060</v>
       </c>
@@ -25598,8 +27305,11 @@
       <c r="M551" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N551" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="552" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
         <v>1061</v>
       </c>
@@ -25639,8 +27349,11 @@
       <c r="M552" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N552" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="553" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
         <v>1063</v>
       </c>
@@ -25677,8 +27390,11 @@
       <c r="L553">
         <v>6460</v>
       </c>
-    </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N553" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="554" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
         <v>1065</v>
       </c>
@@ -25715,8 +27431,11 @@
       <c r="L554">
         <v>7817</v>
       </c>
-    </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N554" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="555" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
         <v>1066</v>
       </c>
@@ -25756,8 +27475,11 @@
       <c r="M555" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N555" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="556" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
         <v>1068</v>
       </c>
@@ -25797,8 +27519,11 @@
       <c r="M556" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N556" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="557" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
         <v>1069</v>
       </c>
@@ -25838,8 +27563,11 @@
       <c r="M557" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N557" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="558" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
         <v>1071</v>
       </c>
@@ -25879,8 +27607,11 @@
       <c r="M558" t="s">
         <v>1072</v>
       </c>
-    </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N558" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="559" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
         <v>1073</v>
       </c>
@@ -25917,8 +27648,11 @@
       <c r="L559">
         <v>4671</v>
       </c>
-    </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N559" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="560" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
         <v>1075</v>
       </c>
@@ -25955,8 +27689,11 @@
       <c r="L560">
         <v>6267</v>
       </c>
-    </row>
-    <row r="561" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N560" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="561" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
         <v>1076</v>
       </c>
@@ -25993,8 +27730,11 @@
       <c r="L561">
         <v>6472</v>
       </c>
-    </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N561" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="562" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
         <v>1078</v>
       </c>
@@ -26031,8 +27771,11 @@
       <c r="L562">
         <v>7192</v>
       </c>
-    </row>
-    <row r="563" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N562" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="563" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
         <v>1079</v>
       </c>
@@ -26072,8 +27815,11 @@
       <c r="M563" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N563" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="564" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
         <v>1081</v>
       </c>
@@ -26110,8 +27856,11 @@
       <c r="L564">
         <v>5529</v>
       </c>
-    </row>
-    <row r="565" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N564" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="565" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
         <v>1084</v>
       </c>
@@ -26148,8 +27897,11 @@
       <c r="L565">
         <v>5432</v>
       </c>
-    </row>
-    <row r="566" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N565" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="566" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
         <v>1085</v>
       </c>
@@ -26189,8 +27941,11 @@
       <c r="M566" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="567" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N566" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="567" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
         <v>1087</v>
       </c>
@@ -26230,8 +27985,11 @@
       <c r="M567" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="568" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N567" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="568" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
         <v>1088</v>
       </c>
@@ -26268,8 +28026,11 @@
       <c r="L568">
         <v>6643</v>
       </c>
-    </row>
-    <row r="569" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N568" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="569" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
         <v>1090</v>
       </c>
@@ -26306,8 +28067,11 @@
       <c r="L569">
         <v>7554</v>
       </c>
-    </row>
-    <row r="570" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N569" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="570" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
         <v>1091</v>
       </c>
@@ -26347,8 +28111,11 @@
       <c r="M570" t="s">
         <v>1092</v>
       </c>
-    </row>
-    <row r="571" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N570" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="571" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
         <v>1093</v>
       </c>
@@ -26388,8 +28155,11 @@
       <c r="M571" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="572" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N571" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="572" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
         <v>1095</v>
       </c>
@@ -26429,8 +28199,11 @@
       <c r="M572" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="573" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N572" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="573" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
         <v>1096</v>
       </c>
@@ -26470,8 +28243,11 @@
       <c r="M573" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N573" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="574" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
         <v>1097</v>
       </c>
@@ -26511,8 +28287,11 @@
       <c r="M574" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="575" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N574" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="575" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
         <v>1098</v>
       </c>
@@ -26549,8 +28328,11 @@
       <c r="L575">
         <v>4073</v>
       </c>
-    </row>
-    <row r="576" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N575" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="576" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
         <v>1100</v>
       </c>
@@ -26587,8 +28369,11 @@
       <c r="L576">
         <v>4651</v>
       </c>
-    </row>
-    <row r="577" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N576" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="577" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="s">
         <v>1101</v>
       </c>
@@ -26625,8 +28410,11 @@
       <c r="L577">
         <v>3559</v>
       </c>
-    </row>
-    <row r="578" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N577" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="578" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
         <v>1102</v>
       </c>
@@ -26663,8 +28451,11 @@
       <c r="L578">
         <v>4481</v>
       </c>
-    </row>
-    <row r="579" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N578" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="579" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
         <v>1103</v>
       </c>
@@ -26701,8 +28492,11 @@
       <c r="L579">
         <v>5430</v>
       </c>
-    </row>
-    <row r="580" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N579" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="580" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
         <v>1105</v>
       </c>
@@ -26739,8 +28533,11 @@
       <c r="L580">
         <v>5632</v>
       </c>
-    </row>
-    <row r="581" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N580" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="581" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
         <v>1106</v>
       </c>
@@ -26780,8 +28577,11 @@
       <c r="M581" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="582" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N581" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="582" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
         <v>1108</v>
       </c>
@@ -26821,8 +28621,11 @@
       <c r="M582" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="583" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N582" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="583" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A583" s="1" t="s">
         <v>1109</v>
       </c>
@@ -26859,8 +28662,11 @@
       <c r="L583">
         <v>7506</v>
       </c>
-    </row>
-    <row r="584" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N583" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="584" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
         <v>1111</v>
       </c>
@@ -26897,8 +28703,11 @@
       <c r="L584">
         <v>7799</v>
       </c>
-    </row>
-    <row r="585" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N584" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="585" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
         <v>1112</v>
       </c>
@@ -26935,8 +28744,11 @@
       <c r="L585">
         <v>6494</v>
       </c>
-    </row>
-    <row r="586" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N585" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="586" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
         <v>1114</v>
       </c>
@@ -26973,8 +28785,11 @@
       <c r="L586">
         <v>6574</v>
       </c>
-    </row>
-    <row r="587" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N586" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="587" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
         <v>1115</v>
       </c>
@@ -27011,8 +28826,11 @@
       <c r="L587">
         <v>8542</v>
       </c>
-    </row>
-    <row r="588" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N587" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="588" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
         <v>1117</v>
       </c>
@@ -27049,8 +28867,11 @@
       <c r="L588">
         <v>7799</v>
       </c>
-    </row>
-    <row r="589" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N588" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="589" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A589" s="1" t="s">
         <v>1118</v>
       </c>
@@ -27087,8 +28908,11 @@
       <c r="L589">
         <v>5082</v>
       </c>
-    </row>
-    <row r="590" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N589" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="590" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
         <v>1121</v>
       </c>
@@ -27125,8 +28949,11 @@
       <c r="L590">
         <v>5847</v>
       </c>
-    </row>
-    <row r="591" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N590" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="591" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
         <v>1122</v>
       </c>
@@ -27166,8 +28993,11 @@
       <c r="M591" t="s">
         <v>1175</v>
       </c>
-    </row>
-    <row r="592" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N591" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="592" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
         <v>1125</v>
       </c>
@@ -27207,8 +29037,11 @@
       <c r="M592" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="593" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N592" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="593" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
         <v>1126</v>
       </c>
@@ -27245,8 +29078,11 @@
       <c r="L593">
         <v>5875</v>
       </c>
-    </row>
-    <row r="594" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N593" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="594" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
         <v>1128</v>
       </c>
@@ -27283,8 +29119,11 @@
       <c r="L594">
         <v>5501</v>
       </c>
-    </row>
-    <row r="595" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N594" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="595" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
         <v>1129</v>
       </c>
@@ -27321,8 +29160,11 @@
       <c r="L595">
         <v>6822</v>
       </c>
-    </row>
-    <row r="596" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N595" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="596" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
         <v>1131</v>
       </c>
@@ -27359,8 +29201,11 @@
       <c r="L596">
         <v>8004</v>
       </c>
-    </row>
-    <row r="597" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N596" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="597" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
         <v>1132</v>
       </c>
@@ -27397,8 +29242,11 @@
       <c r="L597">
         <v>5197</v>
       </c>
-    </row>
-    <row r="598" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N597" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="598" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
         <v>1134</v>
       </c>
@@ -27435,8 +29283,11 @@
       <c r="L598">
         <v>6091</v>
       </c>
-    </row>
-    <row r="599" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N598" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="599" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A599" s="1" t="s">
         <v>1135</v>
       </c>
@@ -27476,8 +29327,11 @@
       <c r="M599" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="600" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N599" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="600" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
         <v>1137</v>
       </c>
@@ -27517,8 +29371,11 @@
       <c r="M600" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="601" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N600" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="601" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
         <v>1138</v>
       </c>
@@ -27558,8 +29415,11 @@
       <c r="M601" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="602" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N601" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="602" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
         <v>1142</v>
       </c>
@@ -27599,8 +29459,11 @@
       <c r="M602" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="603" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N602" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="603" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
         <v>1143</v>
       </c>
@@ -27637,8 +29500,11 @@
       <c r="L603">
         <v>5948</v>
       </c>
-    </row>
-    <row r="604" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N603" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="604" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
         <v>1146</v>
       </c>
@@ -27675,8 +29541,11 @@
       <c r="L604">
         <v>6032</v>
       </c>
-    </row>
-    <row r="605" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N604" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="605" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A605" s="1" t="s">
         <v>1147</v>
       </c>
@@ -27716,8 +29585,11 @@
       <c r="M605" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="606" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N605" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="606" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
         <v>1149</v>
       </c>
@@ -27757,8 +29629,11 @@
       <c r="M606" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="607" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N606" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="607" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
         <v>1150</v>
       </c>
@@ -27798,8 +29673,11 @@
       <c r="M607" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="608" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N607" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="608" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
         <v>1153</v>
       </c>
@@ -27839,8 +29717,11 @@
       <c r="M608" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="609" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N608" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="609" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
         <v>1154</v>
       </c>
@@ -27880,8 +29761,11 @@
       <c r="M609" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="610" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N609" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="610" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
         <v>1156</v>
       </c>
@@ -27921,8 +29805,11 @@
       <c r="M610" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="611" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N610" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="611" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
         <v>1157</v>
       </c>
@@ -27962,8 +29849,11 @@
       <c r="M611" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="612" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N611" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="612" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
         <v>1159</v>
       </c>
@@ -28002,6 +29892,9 @@
       </c>
       <c r="M612" t="s">
         <v>1141</v>
+      </c>
+      <c r="N612" s="2" t="s">
+        <v>1291</v>
       </c>
     </row>
   </sheetData>
